--- a/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_08-04_end.xlsx
+++ b/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_08-04_end.xlsx
@@ -460,31 +460,31 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Alina"] I was right not to go with you.  Burning people alive... If I ever have to smell that again, I’m sure I’ll throw up.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"] Alina, don’t force yourself.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Alina"]  I’m the one who followed you in the first place.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"]  And I’ll protect your Infected here. I will.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Alina"]  No, I’m not here to beg you to—
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"]  Of course you’re not. Alina, without you, I wouldn’t have the time to go gather resources or info.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Alina"]  Who’s your contact? Would it be safe to tell me?
+    <t xml:space="preserve">[name="Alina"] I was right not to go with you.  Burning people alive... If I ever have to smell that again, I'm sure I'll throw up.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] Alina, don't force yourself.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"]  I'm the one who followed you in the first place.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  And I'll protect your Infected here. I will.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"]  No, I'm not here to beg you to—
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  Of course you're not. Alina, without you, I wouldn't have the time to go gather resources or info.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"]  Who's your contact? Would it be safe to tell me?
 </t>
   </si>
   <si>
@@ -492,19 +492,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Alina"]  Are you worried I’m an Ursus spy?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"]  Just wondering if it’d be better not to get you wrapped up in this.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Alina"]  The moment we became Infected, life for us couldn’t get any worse.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"]  I’m in contact with Infected in other places.
+    <t xml:space="preserve">[name="Alina"]  Are you worried I'm an Ursus spy?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  Just wondering if it'd be better not to get you wrapped up in this.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"]  The moment we became Infected, life for us couldn't get any worse.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"]  I'm in contact with Infected in other places.
 </t>
   </si>
   <si>
@@ -512,7 +512,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Alina"]  What you’re doing is... insane, in a lot of ways.
+    <t xml:space="preserve">[name="Alina"]  What you're doing is... insane, in a lot of ways.
 </t>
   </si>
   <si>
@@ -528,15 +528,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Talulah"] And I vowed to walk against it. I’m going to tear their decorous flesh straight from their bones, pull apart the noble cities their pride built layer by layer, and let everyone know the truth, everyone out on the Tundra... 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"] And after that, we’ll decide our own destinies.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"] We’re going to clear this land out. We’ll found our own homeland, and if anyone thinks to stop us, we’ll topple them right then and there. 
+    <t xml:space="preserve">[name="Talulah"] And I vowed to walk against it. I'm going to tear their decorous flesh straight from their bones, pull apart the noble cities their pride built layer by layer, and let everyone know the truth, everyone out on the Tundra... 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] And after that, we'll decide our own destinies.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] We're going to clear this land out. We'll found our own homeland, and if anyone thinks to stop us, we'll topple them right then and there. 
 </t>
   </si>
   <si>
@@ -548,23 +548,23 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Alina"] If you do this, the village will be destroyed. They’ll have nowhere to go, and the Patrol Unit will chase them down.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"] And if I don’t do this, the village would still end up abandoned over time.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Alina"] Not everyone can join the army. The elderly, children, the injured and sick. If you have them give up everything they’ve ever survived on, they’ll die no matter the soil quality. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"] I know, Alina. So we’ll find somewhere new.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"] Come on. Let’s go. We’ve got somewhere we can stay tonight.
+    <t xml:space="preserve">[name="Alina"] If you do this, the village will be destroyed. They'll have nowhere to go, and the Patrol Unit will chase them down.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] And if I don't do this, the village would still end up abandoned over time.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"] Not everyone can join the army. The elderly, children, the injured and sick. If you have them give up everything they've ever survived on, they'll die no matter the soil quality. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] I know, Alina. So we'll find somewhere new.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] Come on. Let's go. We've got somewhere we can stay tonight.
 </t>
   </si>
   <si>
@@ -576,7 +576,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Infected"] Ain’t nothing. Without you, we’d probably all be dead by now. Though we’re still pretty much at death’s door.
+    <t xml:space="preserve">[name="Infected"] Ain't nothing. Without you, we'd probably all be dead by now. Though we're still pretty much at death's door.
 </t>
   </si>
   <si>
@@ -584,23 +584,23 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Infected"] Don’t really have anything left to welcome you with, either. Just put up with this bit of oat gruel, I guess.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Alina"] We’re extremely thankful, sir. You shouldn’t have, honestly.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Infected"] No, it’s nothing. We only had this bit left over, anyway. However many days we have left, makes no difference.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Infected"] Wanna set up a village, huh? Doesn’t matter how far you go... there’s no point. Not much point at all.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Infected"] We can’t run. You know how big Ursus is? There’s no point heading anywhere when there’s patrol guys all over... and other people aren’t gonna want us. We’ve got nowhere to go.
+    <t xml:space="preserve">[name="Infected"] Don't really have anything left to welcome you with, either. Just put up with this bit of oat gruel, I guess.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Alina"] We're extremely thankful, sir. You shouldn't have, honestly.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected"] No, it's nothing. We only had this bit left over, anyway. However many days we have left, makes no difference.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected"] Wanna set up a village, huh? Doesn't matter how far you go... there's no point. Not much point at all.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Infected"] We can't run. You know how big Ursus is? There's no point heading anywhere when there's patrol guys all over... and other people aren't gonna want us. We've got nowhere to go.
 </t>
   </si>
   <si>
@@ -612,19 +612,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Talulah"] It doesn’t need to be now.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"] I’ll wait until you’ve thought it all through. Or if you end up with absolutely nowhere left to go, and you still want to live on, come find me, or find one of my brothers.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"] If we head for the wilderness, life in the tundra’s... cruel, to say the least.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Talulah"] But we’ve got places to go. Places without the hearth of civilization as of yet. We’ll find somewhere we can sow and harvest; we have so many people, they’d surely be able to help out with business, and we’d have an income.
+    <t xml:space="preserve">[name="Talulah"] It doesn't need to be now.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] I'll wait until you've thought it all through. Or if you end up with absolutely nowhere left to go, and you still want to live on, come find me, or find one of my brothers.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] If we head for the wilderness, life in the tundra's... cruel, to say the least.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Talulah"] But we've got places to go. Places without the hearth of civilization as of yet. We'll find somewhere we can sow and harvest; we have so many people, they'd surely be able to help out with business, and we'd have an income.
 </t>
   </si>
   <si>
@@ -636,7 +636,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Talulah"] —We’d defeat them.
+    <t xml:space="preserve">[name="Talulah"] —We'd defeat them.
 </t>
   </si>
   <si>
@@ -652,7 +652,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Talulah"] If people think to come and rob us, we’ll come together and fight them off. The Infected have strength.
+    <t xml:space="preserve">[name="Talulah"] If people think to come and rob us, we'll come together and fight them off. The Infected have strength.
 </t>
   </si>
   <si>
